--- a/soc_occ_to_job_title_mapping_explanation.xlsx
+++ b/soc_occ_to_job_title_mapping_explanation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eatalay\Desktop\occupationdata.github.io\apst_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eatalay\Desktop\occupationdata.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>onet_soc</t>
-  </si>
-  <si>
-    <t>onet_title</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>count</t>
   </si>
@@ -99,6 +90,18 @@
   </si>
   <si>
     <t>Exact: The match between the job title and occ_title is exact</t>
+  </si>
+  <si>
+    <t>soc_code</t>
+  </si>
+  <si>
+    <t>soc_title</t>
+  </si>
+  <si>
+    <t>soc_score</t>
+  </si>
+  <si>
+    <t>occ_score</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -441,124 +446,124 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/soc_occ_to_job_title_mapping_explanation.xlsx
+++ b/soc_occ_to_job_title_mapping_explanation.xlsx
@@ -56,9 +56,6 @@
     <t>Special Cases</t>
   </si>
   <si>
-    <t>Exact: The match between the job title and onet_title is exact</t>
-  </si>
-  <si>
     <t>0: There were certain words (e.g., personnel, associate) that led us to exclude this job title from our data set. The SOC code is marked as 999999 in these instances.</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>0: There were certain words (e.g., personnel, associate) that led us to exclude this job title from our data set. The OCC code is marked as 999 in these instances.</t>
   </si>
   <si>
-    <t>Exact: The match between the job title and occ_title is exact</t>
-  </si>
-  <si>
     <t>soc_code</t>
   </si>
   <si>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>occ_score</t>
+  </si>
+  <si>
+    <t>2: The match between the job title and occ_title is exact</t>
+  </si>
+  <si>
+    <t>2: The match between the job title and onet_title is exact</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,12 +470,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -504,46 +504,46 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
@@ -553,17 +553,17 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
